--- a/version6/version6/Tool/01_data/cases/TestDyn_2CIGs/OP_7_data_vsc.xlsx
+++ b/version6/version6/Tool/01_data/cases/TestDyn_2CIGs/OP_7_data_vsc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original\hp2c-dt\version6\version6\Tool\01_data\cases\TestDyn_2CIGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6FF32-8AAB-4F6B-B22F-6145434CD79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544D205-276C-4BEE-B829-1B5634F7AE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="922" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATCOM" sheetId="4" r:id="rId1"/>
@@ -1002,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:AH352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1143,7 +1143,7 @@
         <v>0.02</v>
       </c>
       <c r="Q2" s="12">
-        <v>1.0000000000000001E-5</v>
+        <v>-1</v>
       </c>
       <c r="R2" s="12">
         <v>-1</v>
@@ -2886,8 +2886,8 @@
   </sheetPr>
   <dimension ref="A1:BA47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3020,7 +3020,7 @@
         <v>0.1</v>
       </c>
       <c r="Q2" s="12">
-        <v>1.0000000000000001E-5</v>
+        <v>-1</v>
       </c>
       <c r="R2" s="12">
         <v>-1</v>
